--- a/Aplikasi Skripsi/Data Predict/DataPredict Prabowo.xlsx
+++ b/Aplikasi Skripsi/Data Predict/DataPredict Prabowo.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\Data Predict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC7D443-902E-473E-A629-06517C73804A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230BFF29-C580-4349-A873-EA1B9CB62744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7754" uniqueCount="3134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7751" uniqueCount="3134">
   <si>
     <t>Bulan</t>
   </si>
@@ -13302,11 +13313,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3880"/>
+  <dimension ref="A1:D3875"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3867" workbookViewId="0">
-      <selection activeCell="E3879" sqref="E3879"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -13567,7 +13576,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -16451,7 +16460,7 @@
         <v>3</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D225" t="s">
         <v>227</v>
@@ -17599,7 +17608,7 @@
         <v>3</v>
       </c>
       <c r="C307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D307" t="s">
         <v>309</v>
@@ -18131,7 +18140,7 @@
         <v>3</v>
       </c>
       <c r="C345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D345" t="s">
         <v>347</v>
@@ -18621,7 +18630,7 @@
         <v>3</v>
       </c>
       <c r="C380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D380" t="s">
         <v>382</v>
@@ -18677,7 +18686,7 @@
         <v>3</v>
       </c>
       <c r="C384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D384" t="s">
         <v>386</v>
@@ -19069,7 +19078,7 @@
         <v>3</v>
       </c>
       <c r="C412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D412" t="s">
         <v>414</v>
@@ -19657,7 +19666,7 @@
         <v>3</v>
       </c>
       <c r="C454">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D454" t="s">
         <v>456</v>
@@ -20959,7 +20968,7 @@
         <v>3</v>
       </c>
       <c r="C547">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D547" t="s">
         <v>549</v>
@@ -20973,7 +20982,7 @@
         <v>3</v>
       </c>
       <c r="C548">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D548" t="s">
         <v>550</v>
@@ -21071,7 +21080,7 @@
         <v>3</v>
       </c>
       <c r="C555">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D555" t="s">
         <v>557</v>
@@ -22359,7 +22368,7 @@
         <v>3</v>
       </c>
       <c r="C647">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D647" t="s">
         <v>649</v>
@@ -23255,7 +23264,7 @@
         <v>3</v>
       </c>
       <c r="C711">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D711" t="s">
         <v>713</v>
@@ -24025,7 +24034,7 @@
         <v>3</v>
       </c>
       <c r="C766">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D766" t="s">
         <v>768</v>
@@ -24137,7 +24146,7 @@
         <v>3</v>
       </c>
       <c r="C774">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D774" t="s">
         <v>776</v>
@@ -24389,7 +24398,7 @@
         <v>3</v>
       </c>
       <c r="C792">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D792" t="s">
         <v>794</v>
@@ -24501,7 +24510,7 @@
         <v>3</v>
       </c>
       <c r="C800">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D800" t="s">
         <v>802</v>
@@ -24529,7 +24538,7 @@
         <v>3</v>
       </c>
       <c r="C802">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D802" t="s">
         <v>804</v>
@@ -24571,7 +24580,7 @@
         <v>3</v>
       </c>
       <c r="C805">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D805" t="s">
         <v>807</v>
@@ -24613,7 +24622,7 @@
         <v>3</v>
       </c>
       <c r="C808">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D808" t="s">
         <v>810</v>
@@ -24669,7 +24678,7 @@
         <v>3</v>
       </c>
       <c r="C812">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D812" t="s">
         <v>814</v>
@@ -24767,7 +24776,7 @@
         <v>3</v>
       </c>
       <c r="C819">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D819" t="s">
         <v>821</v>
@@ -24795,7 +24804,7 @@
         <v>3</v>
       </c>
       <c r="C821">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D821" t="s">
         <v>823</v>
@@ -24823,7 +24832,7 @@
         <v>3</v>
       </c>
       <c r="C823">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D823" t="s">
         <v>825</v>
@@ -24963,7 +24972,7 @@
         <v>3</v>
       </c>
       <c r="C833">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D833" t="s">
         <v>835</v>
@@ -24977,7 +24986,7 @@
         <v>3</v>
       </c>
       <c r="C834">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D834" t="s">
         <v>836</v>
@@ -25033,7 +25042,7 @@
         <v>3</v>
       </c>
       <c r="C838">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D838" t="s">
         <v>840</v>
@@ -25047,7 +25056,7 @@
         <v>3</v>
       </c>
       <c r="C839">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D839" t="s">
         <v>841</v>
@@ -25173,7 +25182,7 @@
         <v>3</v>
       </c>
       <c r="C848">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D848" t="s">
         <v>850</v>
@@ -25187,7 +25196,7 @@
         <v>3</v>
       </c>
       <c r="C849">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D849" t="s">
         <v>851</v>
@@ -25565,7 +25574,7 @@
         <v>3</v>
       </c>
       <c r="C876">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D876" t="s">
         <v>878</v>
@@ -25649,7 +25658,7 @@
         <v>3</v>
       </c>
       <c r="C882">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D882" t="s">
         <v>884</v>
@@ -25705,7 +25714,7 @@
         <v>3</v>
       </c>
       <c r="C886">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D886" t="s">
         <v>888</v>
@@ -25873,7 +25882,7 @@
         <v>3</v>
       </c>
       <c r="C898">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D898" t="s">
         <v>900</v>
@@ -26041,7 +26050,7 @@
         <v>3</v>
       </c>
       <c r="C910">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D910" t="s">
         <v>912</v>
@@ -26055,7 +26064,7 @@
         <v>3</v>
       </c>
       <c r="C911">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D911" t="s">
         <v>913</v>
@@ -26069,7 +26078,7 @@
         <v>3</v>
       </c>
       <c r="C912">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D912" t="s">
         <v>914</v>
@@ -26097,7 +26106,7 @@
         <v>3</v>
       </c>
       <c r="C914">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D914" t="s">
         <v>916</v>
@@ -26111,7 +26120,7 @@
         <v>3</v>
       </c>
       <c r="C915">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D915" t="s">
         <v>917</v>
@@ -26195,7 +26204,7 @@
         <v>3</v>
       </c>
       <c r="C921">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D921" t="s">
         <v>923</v>
@@ -26293,7 +26302,7 @@
         <v>3</v>
       </c>
       <c r="C928">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D928" t="s">
         <v>930</v>
@@ -26307,7 +26316,7 @@
         <v>3</v>
       </c>
       <c r="C929">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D929" t="s">
         <v>931</v>
@@ -26349,7 +26358,7 @@
         <v>3</v>
       </c>
       <c r="C932">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D932" t="s">
         <v>934</v>
@@ -26391,7 +26400,7 @@
         <v>3</v>
       </c>
       <c r="C935">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D935" t="s">
         <v>937</v>
@@ -26447,7 +26456,7 @@
         <v>3</v>
       </c>
       <c r="C939">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D939" t="s">
         <v>941</v>
@@ -26615,7 +26624,7 @@
         <v>3</v>
       </c>
       <c r="C951">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D951" t="s">
         <v>953</v>
@@ -26643,7 +26652,7 @@
         <v>3</v>
       </c>
       <c r="C953">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D953" t="s">
         <v>955</v>
@@ -26727,7 +26736,7 @@
         <v>3</v>
       </c>
       <c r="C959">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D959" t="s">
         <v>961</v>
@@ -26909,7 +26918,7 @@
         <v>3</v>
       </c>
       <c r="C972">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D972" t="s">
         <v>974</v>
@@ -27063,7 +27072,7 @@
         <v>3</v>
       </c>
       <c r="C983">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D983" t="s">
         <v>985</v>
@@ -27077,7 +27086,7 @@
         <v>3</v>
       </c>
       <c r="C984">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D984" t="s">
         <v>986</v>
@@ -27483,7 +27492,7 @@
         <v>3</v>
       </c>
       <c r="C1013">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1013" t="s">
         <v>1015</v>
@@ -27497,7 +27506,7 @@
         <v>3</v>
       </c>
       <c r="C1014">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1014" t="s">
         <v>1016</v>
@@ -27567,7 +27576,7 @@
         <v>3</v>
       </c>
       <c r="C1019">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1019" t="s">
         <v>1021</v>
@@ -27651,7 +27660,7 @@
         <v>3</v>
       </c>
       <c r="C1025">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1025" t="s">
         <v>1027</v>
@@ -27679,7 +27688,7 @@
         <v>3</v>
       </c>
       <c r="C1027">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1027" t="s">
         <v>1029</v>
@@ -29401,7 +29410,7 @@
         <v>3</v>
       </c>
       <c r="C1150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1150" t="s">
         <v>1152</v>
@@ -29919,7 +29928,7 @@
         <v>3</v>
       </c>
       <c r="C1187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1187" t="s">
         <v>1189</v>
@@ -30129,7 +30138,7 @@
         <v>3</v>
       </c>
       <c r="C1202">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1202" t="s">
         <v>1204</v>
@@ -31403,7 +31412,7 @@
         <v>3</v>
       </c>
       <c r="C1293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1293" t="s">
         <v>1295</v>
@@ -31431,7 +31440,7 @@
         <v>3</v>
       </c>
       <c r="C1295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1295" t="s">
         <v>1297</v>
@@ -34637,7 +34646,7 @@
         <v>1441</v>
       </c>
       <c r="C1524">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1524" t="s">
         <v>1527</v>
@@ -34665,7 +34674,7 @@
         <v>1441</v>
       </c>
       <c r="C1526">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1526" t="s">
         <v>1529</v>
@@ -34791,7 +34800,7 @@
         <v>1441</v>
       </c>
       <c r="C1535">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1535" t="s">
         <v>1538</v>
@@ -34805,7 +34814,7 @@
         <v>1441</v>
       </c>
       <c r="C1536">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1536" t="s">
         <v>1539</v>
@@ -35113,7 +35122,7 @@
         <v>1441</v>
       </c>
       <c r="C1558">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1558" t="s">
         <v>1561</v>
@@ -35267,7 +35276,7 @@
         <v>1441</v>
       </c>
       <c r="C1569">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1569" t="s">
         <v>1572</v>
@@ -35323,7 +35332,7 @@
         <v>1441</v>
       </c>
       <c r="C1573">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1573" t="s">
         <v>1576</v>
@@ -35687,7 +35696,7 @@
         <v>1441</v>
       </c>
       <c r="C1599">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1599" t="s">
         <v>1602</v>
@@ -35813,7 +35822,7 @@
         <v>1441</v>
       </c>
       <c r="C1608">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1608" t="s">
         <v>1611</v>
@@ -35883,7 +35892,7 @@
         <v>1441</v>
       </c>
       <c r="C1613">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1613" t="s">
         <v>1616</v>
@@ -35911,7 +35920,7 @@
         <v>1441</v>
       </c>
       <c r="C1615">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1615" t="s">
         <v>1618</v>
@@ -36261,7 +36270,7 @@
         <v>1441</v>
       </c>
       <c r="C1640">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1640" t="s">
         <v>1643</v>
@@ -36583,7 +36592,7 @@
         <v>1441</v>
       </c>
       <c r="C1663">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1663" t="s">
         <v>1666</v>
@@ -36653,7 +36662,7 @@
         <v>1441</v>
       </c>
       <c r="C1668">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1668" t="s">
         <v>1671</v>
@@ -36835,7 +36844,7 @@
         <v>1441</v>
       </c>
       <c r="C1681">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1681" t="s">
         <v>1684</v>
@@ -37073,7 +37082,7 @@
         <v>1441</v>
       </c>
       <c r="C1698">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1698" t="s">
         <v>1701</v>
@@ -37437,7 +37446,7 @@
         <v>1441</v>
       </c>
       <c r="C1724">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1724" t="s">
         <v>1727</v>
@@ -37535,7 +37544,7 @@
         <v>1441</v>
       </c>
       <c r="C1731">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1731" t="s">
         <v>1734</v>
@@ -39887,7 +39896,7 @@
         <v>1441</v>
       </c>
       <c r="C1899">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1899" t="s">
         <v>1902</v>
@@ -40167,7 +40176,7 @@
         <v>1441</v>
       </c>
       <c r="C1919">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1919" t="s">
         <v>1922</v>
@@ -41175,7 +41184,7 @@
         <v>1441</v>
       </c>
       <c r="C1991">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1991" t="s">
         <v>1994</v>
@@ -41385,7 +41394,7 @@
         <v>1441</v>
       </c>
       <c r="C2006">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2006" t="s">
         <v>2009</v>
@@ -41539,7 +41548,7 @@
         <v>1441</v>
       </c>
       <c r="C2017">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2017" t="s">
         <v>2020</v>
@@ -42519,7 +42528,7 @@
         <v>1441</v>
       </c>
       <c r="C2087">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2087" t="s">
         <v>2090</v>
@@ -42701,7 +42710,7 @@
         <v>1441</v>
       </c>
       <c r="C2100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2100" t="s">
         <v>2103</v>
@@ -42897,7 +42906,7 @@
         <v>1441</v>
       </c>
       <c r="C2114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2114" t="s">
         <v>2117</v>
@@ -42911,7 +42920,7 @@
         <v>1441</v>
       </c>
       <c r="C2115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2115" t="s">
         <v>2118</v>
@@ -43905,7 +43914,7 @@
         <v>1441</v>
       </c>
       <c r="C2186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2186" t="s">
         <v>2189</v>
@@ -48231,7 +48240,7 @@
         <v>1441</v>
       </c>
       <c r="C2495">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2495" t="s">
         <v>2491</v>
@@ -51619,7 +51628,7 @@
         <v>1441</v>
       </c>
       <c r="C2737">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2737" t="s">
         <v>2729</v>
@@ -52963,7 +52972,7 @@
         <v>1441</v>
       </c>
       <c r="C2833">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2833" t="s">
         <v>2824</v>
@@ -52977,7 +52986,7 @@
         <v>1441</v>
       </c>
       <c r="C2834">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2834" t="s">
         <v>2825</v>
@@ -53285,7 +53294,7 @@
         <v>1441</v>
       </c>
       <c r="C2856">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2856" t="s">
         <v>2846</v>
@@ -55497,7 +55506,7 @@
         <v>2892</v>
       </c>
       <c r="C3014">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3014" t="s">
         <v>3005</v>
@@ -55567,7 +55576,7 @@
         <v>2892</v>
       </c>
       <c r="C3019">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D3019" t="s">
         <v>3010</v>
@@ -56701,7 +56710,7 @@
         <v>2892</v>
       </c>
       <c r="C3100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D3100" t="s">
         <v>3091</v>
@@ -64387,7 +64396,7 @@
         <v>2892</v>
       </c>
       <c r="C3649">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3649" t="s">
         <v>1538</v>
@@ -65199,7 +65208,7 @@
         <v>2892</v>
       </c>
       <c r="C3707">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3707" t="s">
         <v>1602</v>
@@ -67555,68 +67564,6 @@
       </c>
       <c r="D3875" t="s">
         <v>1800</v>
-      </c>
-    </row>
-    <row r="3877" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3877">
-        <v>1</v>
-      </c>
-      <c r="C3877">
-        <v>0</v>
-      </c>
-      <c r="D3877">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3878" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3878" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3878">
-        <f>COUNTIFS($B$2:$B$3875,$A3878,$C$2:$C$3875,B$3877)</f>
-        <v>1238</v>
-      </c>
-      <c r="C3878">
-        <f t="shared" ref="C3878:D3880" si="0">COUNTIFS($B$2:$B$3875,$A3878,$C$2:$C$3875,C$3877)</f>
-        <v>191</v>
-      </c>
-      <c r="D3878">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3879" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3879" t="s">
-        <v>1441</v>
-      </c>
-      <c r="B3879">
-        <f t="shared" ref="B3879:B3880" si="1">COUNTIFS($B$2:$B$3875,$A3879,$C$2:$C$3875,B$3877)</f>
-        <v>1325</v>
-      </c>
-      <c r="C3879">
-        <f t="shared" si="0"/>
-        <v>137</v>
-      </c>
-      <c r="D3879">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3880" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3880" t="s">
-        <v>2892</v>
-      </c>
-      <c r="B3880">
-        <f t="shared" si="1"/>
-        <v>954</v>
-      </c>
-      <c r="C3880">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D3880">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
